--- a/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>41.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>004223</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>金信多策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1124,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1140,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1156,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300802-矩子科技.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,95 +455,211 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -600,36 +716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.2259</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -638,36 +754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -686,26 +802,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -864,36 +980,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>41.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2259</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -902,36 +1018,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>41.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -950,120 +1066,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>93.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>50.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0686</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1077,112 +1099,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>